--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>NIS</t>
   </si>
@@ -25,7 +25,13 @@
     <t>ALAMAT</t>
   </si>
   <si>
-    <t>Jack Sparrow</t>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>NOMOR TELEPON</t>
+  </si>
+  <si>
+    <t>Pamungkas</t>
   </si>
   <si>
     <t>L</t>
@@ -34,19 +40,43 @@
     <t>Jakarta</t>
   </si>
   <si>
-    <t>Jon Snow</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>Daenarys</t>
+    <t>pam@gmail.com</t>
+  </si>
+  <si>
+    <t>Raissa Anggiani</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>Westeros</t>
+    <t>raissa@gmail.com</t>
+  </si>
+  <si>
+    <t>Coldiac</t>
+  </si>
+  <si>
+    <t>Malang</t>
+  </si>
+  <si>
+    <t>coldiac@gmail.com</t>
+  </si>
+  <si>
+    <t>089686287132</t>
+  </si>
+  <si>
+    <t>Padi</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>padireborn@gmail.com</t>
+  </si>
+  <si>
+    <t>Raisa Daud</t>
+  </si>
+  <si>
+    <t>raisaandriana@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -79,42 +109,29 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -330,6 +347,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="13.5"/>
+    <col customWidth="1" min="6" max="6" width="15.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -344,48 +365,104 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>1047.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>1001.0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
-        <v>1048.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>1002.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>1003.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>1004.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>1005.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>1049.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faiz\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>NIS</t>
   </si>
@@ -31,74 +39,52 @@
     <t>NOMOR TELEPON</t>
   </si>
   <si>
-    <t>Pamungkas</t>
+    <t>Udin</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>pam@gmail.com</t>
-  </si>
-  <si>
-    <t>Raissa Anggiani</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>raissa@gmail.com</t>
-  </si>
-  <si>
-    <t>Coldiac</t>
-  </si>
-  <si>
-    <t>Malang</t>
-  </si>
-  <si>
-    <t>coldiac@gmail.com</t>
-  </si>
-  <si>
-    <t>089686287132</t>
-  </si>
-  <si>
-    <t>Padi</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>padireborn@gmail.com</t>
-  </si>
-  <si>
-    <t>Raisa Daud</t>
-  </si>
-  <si>
-    <t>raisaandriana@gmail.com</t>
+    <t>Rumahnya</t>
+  </si>
+  <si>
+    <t>mfaizras@gmail.com</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>gagag@mgm.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,46 +92,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -335,24 +325,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="13.5"/>
-    <col customWidth="1" min="6" max="6" width="15.63"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -368,103 +363,61 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1001.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>13131</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2">
+        <v>128182</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1002.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>12412</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="F3">
+        <v>89190290</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>1003.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>1004.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>1005.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5"/>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>